--- a/apps/demo/djn/var/sys/views/demo/BeforeDisplayAdapterDemo-v0.xlsx
+++ b/apps/demo/djn/var/sys/views/demo/BeforeDisplayAdapterDemo-v0.xlsx
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="124">
   <si>
     <t>Do not modify this column</t>
   </si>
@@ -186,9 +186,6 @@
     <t>*</t>
   </si>
   <si>
-    <t>pyi.core.model.DummyModel</t>
-  </si>
-  <si>
     <t>End of Table</t>
   </si>
   <si>
@@ -265,12 +262,6 @@
   </si>
   <si>
     <t>Monthly Attendance</t>
-  </si>
-  <si>
-    <t>actionBar</t>
-  </si>
-  <si>
-    <t>iconBar</t>
   </si>
   <si>
     <t>Data type, Data Length, Required should come from model</t>
@@ -364,21 +355,6 @@
     <t>showDetails(@id)</t>
   </si>
   <si>
-    <t>saveBtt</t>
-  </si>
-  <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>IconAndText</t>
-  </si>
-  <si>
-    <t>icon:images/save_button.gif</t>
-  </si>
-  <si>
-    <t>save(outputFg)</t>
-  </si>
-  <si>
     <t>subScreenTable</t>
   </si>
   <si>
@@ -434,6 +410,9 @@
   </si>
   <si>
     <t>Before Display Adapter Demo</t>
+  </si>
+  <si>
+    <t>core.db.model.DummyModel</t>
   </si>
 </sst>
 </file>
@@ -977,10 +956,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:T55"/>
+  <dimension ref="A1:T53"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1053,7 +1032,7 @@
         <v>8</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="D5" s="8"/>
       <c r="E5" s="8"/>
@@ -1066,7 +1045,7 @@
         <v>10</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="D6" s="8" t="s">
         <v>11</v>
@@ -1239,7 +1218,7 @@
         <v>47</v>
       </c>
       <c r="E18" s="12" t="s">
-        <v>48</v>
+        <v>123</v>
       </c>
       <c r="F18" s="12"/>
       <c r="G18" s="12"/>
@@ -1249,7 +1228,7 @@
     <row r="19" spans="1:20">
       <c r="A19" s="6"/>
       <c r="C19" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
@@ -1264,96 +1243,96 @@
     <row r="21" spans="1:20">
       <c r="A21" s="6"/>
       <c r="D21" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="22" spans="1:20">
       <c r="A22" s="6"/>
       <c r="C22" s="9"/>
       <c r="D22" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="G22" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="G22" s="9" t="s">
+      <c r="H22" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="I22" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="J22" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="K22" s="9" t="s">
         <v>52</v>
-      </c>
-      <c r="H22" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="I22" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="J22" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="K22" s="9" t="s">
-        <v>53</v>
       </c>
       <c r="L22" s="9"/>
       <c r="M22" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="N22" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="O22" s="9"/>
     </row>
     <row r="23" spans="1:20">
       <c r="A23" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="C23" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="D23" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="D23" s="3" t="s">
+      <c r="E23" s="3" t="s">
         <v>58</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>59</v>
       </c>
       <c r="F23" s="3" t="s">
         <v>39</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H23" s="3" t="s">
         <v>24</v>
       </c>
       <c r="I23" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="J23" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="J23" s="3" t="s">
+      <c r="K23" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="K23" s="3" t="s">
+      <c r="L23" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="L23" s="3" t="s">
+      <c r="M23" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="M23" s="3" t="s">
+      <c r="N23" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="N23" s="3" t="s">
+      <c r="O23" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="O23" s="3" t="s">
+      <c r="P23" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="P23" s="3" t="s">
+      <c r="Q23" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="Q23" s="3" t="s">
+      <c r="R23" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="R23" s="3" t="s">
+      <c r="S23" s="3" t="s">
         <v>70</v>
-      </c>
-      <c r="S23" s="3" t="s">
-        <v>71</v>
       </c>
       <c r="T23" s="3" t="s">
         <v>34</v>
@@ -1362,13 +1341,13 @@
     <row r="24" spans="1:20">
       <c r="B24" s="1"/>
       <c r="C24" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="D24" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="D24" s="12" t="s">
+      <c r="E24" s="12" t="s">
         <v>73</v>
-      </c>
-      <c r="E24" s="12" t="s">
-        <v>74</v>
       </c>
       <c r="F24" s="12" t="s">
         <v>46</v>
@@ -1397,136 +1376,134 @@
       <c r="T24" s="12"/>
     </row>
     <row r="25" spans="1:20">
-      <c r="C25" s="12" t="s">
+      <c r="C25" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="3"/>
+      <c r="L25" s="3"/>
+      <c r="M25" s="3"/>
+      <c r="N25" s="3"/>
+      <c r="O25" s="3"/>
+      <c r="P25" s="3"/>
+      <c r="Q25" s="3"/>
+      <c r="R25" s="3"/>
+      <c r="S25" s="3"/>
+      <c r="T25" s="3"/>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="K27" s="9"/>
+      <c r="L27" s="13" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="C28" s="9"/>
+      <c r="D28" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="D25" s="12" t="s">
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="E25" s="12"/>
-      <c r="F25" s="12"/>
-      <c r="G25" s="12"/>
-      <c r="H25" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="I25" s="12"/>
-      <c r="J25" s="12"/>
-      <c r="K25" s="12"/>
-      <c r="L25" s="12"/>
-      <c r="M25" s="12"/>
-      <c r="N25" s="12"/>
-      <c r="O25" s="12"/>
-      <c r="P25" s="12"/>
-      <c r="Q25" s="12"/>
-      <c r="R25" s="12"/>
-      <c r="S25" s="12"/>
-      <c r="T25" s="12"/>
-    </row>
-    <row r="26" spans="1:20">
-      <c r="C26" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
-      <c r="J26" s="3"/>
-      <c r="K26" s="3"/>
-      <c r="L26" s="3"/>
-      <c r="M26" s="3"/>
-      <c r="N26" s="3"/>
-      <c r="O26" s="3"/>
-      <c r="P26" s="3"/>
-      <c r="Q26" s="3"/>
-      <c r="R26" s="3"/>
-      <c r="S26" s="3"/>
-      <c r="T26" s="3"/>
-    </row>
-    <row r="28" spans="1:20">
-      <c r="K28" s="9"/>
-      <c r="L28" s="13" t="s">
+      <c r="I28" s="11" t="s">
         <v>77</v>
       </c>
+      <c r="K28" s="17"/>
+      <c r="L28" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="M28" s="20"/>
     </row>
     <row r="29" spans="1:20">
-      <c r="C29" s="9"/>
-      <c r="D29" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="E29" s="9"/>
-      <c r="F29" s="9"/>
-      <c r="G29" s="9"/>
-      <c r="H29" s="11" t="s">
+      <c r="A29" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="I29" s="11" t="s">
+      <c r="B29" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="K29" s="17"/>
-      <c r="L29" s="21" t="s">
+      <c r="C29" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D29" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="M29" s="20"/>
+      <c r="E29" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="K29" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="L29" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="M29" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="N29" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="O29" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="P29" s="3" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="30" spans="1:20">
-      <c r="A30" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="F30" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="G30" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="H30" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="I30" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="J30" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="K30" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="L30" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="M30" s="3" t="s">
+      <c r="B30" s="1"/>
+      <c r="C30" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="D30" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="N30" s="3" t="s">
+      <c r="E30" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="F30" s="12"/>
+      <c r="G30" s="12"/>
+      <c r="H30" s="12"/>
+      <c r="I30" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="O30" s="3" t="s">
+      <c r="J30" s="12"/>
+      <c r="K30" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="L30" s="12"/>
+      <c r="M30" s="12"/>
+      <c r="N30" s="12"/>
+      <c r="O30" s="12"/>
+      <c r="P30" s="12"/>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="C31" s="12"/>
+      <c r="D31" s="12" t="s">
         <v>93</v>
-      </c>
-      <c r="P30" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="31" spans="1:20">
-      <c r="B31" s="1"/>
-      <c r="C31" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="D31" s="12" t="s">
-        <v>94</v>
       </c>
       <c r="E31" s="12" t="s">
         <v>94</v>
@@ -1539,7 +1516,7 @@
       </c>
       <c r="J31" s="12"/>
       <c r="K31" s="12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="L31" s="12"/>
       <c r="M31" s="12"/>
@@ -1585,222 +1562,170 @@
       <c r="I33" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="J33" s="12"/>
-      <c r="K33" s="12" t="s">
-        <v>99</v>
-      </c>
+      <c r="J33" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="K33" s="12"/>
       <c r="L33" s="12"/>
       <c r="M33" s="12"/>
-      <c r="N33" s="12"/>
+      <c r="N33" s="12" t="s">
+        <v>103</v>
+      </c>
       <c r="O33" s="12"/>
       <c r="P33" s="12"/>
     </row>
     <row r="34" spans="1:16">
-      <c r="C34" s="12"/>
-      <c r="D34" s="12" t="s">
-        <v>102</v>
-      </c>
-      <c r="E34" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="F34" s="12"/>
-      <c r="G34" s="12"/>
-      <c r="H34" s="12"/>
-      <c r="I34" s="12" t="s">
+      <c r="C34" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3"/>
+      <c r="I34" s="3"/>
+      <c r="J34" s="3"/>
+      <c r="K34" s="3"/>
+      <c r="L34" s="3"/>
+      <c r="M34" s="3"/>
+      <c r="N34" s="3"/>
+      <c r="O34" s="3"/>
+      <c r="P34" s="3"/>
+    </row>
+    <row r="38" spans="1:16">
+      <c r="A38" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="J34" s="12" t="s">
+      <c r="B38" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="K34" s="12"/>
-      <c r="L34" s="12"/>
-      <c r="M34" s="12"/>
-      <c r="N34" s="12" t="s">
+      <c r="C38" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="O34" s="12"/>
-      <c r="P34" s="12"/>
-    </row>
-    <row r="35" spans="1:16">
-      <c r="C35" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="D35" s="12" t="s">
+      <c r="D38" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16">
+      <c r="C39" s="12"/>
+      <c r="D39" s="12"/>
+      <c r="E39" s="12"/>
+    </row>
+    <row r="40" spans="1:16">
+      <c r="C40" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3"/>
+    </row>
+    <row r="43" spans="1:16">
+      <c r="B43" s="1"/>
+    </row>
+    <row r="44" spans="1:16">
+      <c r="A44" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="E35" s="12" t="s">
+      <c r="B44" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="F35" s="12"/>
-      <c r="G35" s="12"/>
-      <c r="H35" s="12"/>
-      <c r="I35" s="12" t="s">
+      <c r="C44" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D44" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="J35" s="12" t="s">
+      <c r="E44" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="K35" s="12"/>
-      <c r="L35" s="12"/>
-      <c r="M35" s="12"/>
-      <c r="N35" s="12" t="s">
+      <c r="F44" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="O35" s="12"/>
-      <c r="P35" s="12"/>
-    </row>
-    <row r="36" spans="1:16">
-      <c r="C36" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="D36" s="3"/>
-      <c r="E36" s="3"/>
-      <c r="F36" s="3"/>
-      <c r="G36" s="3"/>
-      <c r="H36" s="3"/>
-      <c r="I36" s="3"/>
-      <c r="J36" s="3"/>
-      <c r="K36" s="3"/>
-      <c r="L36" s="3"/>
-      <c r="M36" s="3"/>
-      <c r="N36" s="3"/>
-      <c r="O36" s="3"/>
-      <c r="P36" s="3"/>
-    </row>
-    <row r="40" spans="1:16">
-      <c r="A40" s="7" t="s">
+      <c r="G44" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16">
+      <c r="C45" s="12"/>
+      <c r="D45" s="12"/>
+      <c r="E45" s="12"/>
+      <c r="F45" s="12"/>
+      <c r="G45" s="12"/>
+    </row>
+    <row r="46" spans="1:16">
+      <c r="C46" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D46" s="3"/>
+      <c r="E46" s="3"/>
+      <c r="F46" s="3"/>
+      <c r="G46" s="3"/>
+    </row>
+    <row r="49" spans="1:11">
+      <c r="B49" s="18" t="s">
         <v>112</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="E49" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="C40" s="3" t="s">
+    </row>
+    <row r="50" spans="1:11">
+      <c r="A50" s="14" t="s">
         <v>114</v>
       </c>
-      <c r="D40" s="3" t="s">
+      <c r="B50" s="15"/>
+      <c r="C50" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="E40" s="3" t="s">
+      <c r="D50" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="E50" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="F50" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="G50" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="H50" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="I50" s="19" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="41" spans="1:16">
-      <c r="C41" s="12"/>
-      <c r="D41" s="12"/>
-      <c r="E41" s="12"/>
-    </row>
-    <row r="42" spans="1:16">
-      <c r="C42" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="D42" s="3"/>
-      <c r="E42" s="3"/>
-    </row>
-    <row r="45" spans="1:16">
-      <c r="B45" s="1"/>
-    </row>
-    <row r="46" spans="1:16">
-      <c r="A46" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="C46" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="D46" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="E46" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="F46" s="3" t="s">
+      <c r="K50" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="G46" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="47" spans="1:16">
-      <c r="C47" s="12"/>
-      <c r="D47" s="12"/>
-      <c r="E47" s="12"/>
-      <c r="F47" s="12"/>
-      <c r="G47" s="12"/>
-    </row>
-    <row r="48" spans="1:16">
-      <c r="C48" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="D48" s="3"/>
-      <c r="E48" s="3"/>
-      <c r="F48" s="3"/>
-      <c r="G48" s="3"/>
     </row>
     <row r="51" spans="1:11">
-      <c r="B51" s="18" t="s">
+      <c r="C51" s="12"/>
+      <c r="D51" s="12"/>
+      <c r="E51" s="12"/>
+      <c r="F51" s="12"/>
+      <c r="G51" s="12"/>
+      <c r="H51" s="12"/>
+      <c r="I51" s="12"/>
+      <c r="K51" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="E51" s="8" t="s">
-        <v>121</v>
-      </c>
     </row>
     <row r="52" spans="1:11">
-      <c r="A52" s="14" t="s">
-        <v>122</v>
-      </c>
-      <c r="B52" s="15"/>
-      <c r="C52" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="D52" s="19" t="s">
-        <v>89</v>
-      </c>
-      <c r="E52" s="19" t="s">
-        <v>123</v>
-      </c>
-      <c r="F52" s="19" t="s">
-        <v>124</v>
-      </c>
-      <c r="G52" s="19" t="s">
-        <v>125</v>
-      </c>
-      <c r="H52" s="19" t="s">
-        <v>126</v>
-      </c>
-      <c r="I52" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="K52" s="8" t="s">
-        <v>127</v>
-      </c>
+      <c r="C52" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D52" s="3"/>
+      <c r="E52" s="3"/>
+      <c r="F52" s="3"/>
+      <c r="G52" s="3"/>
+      <c r="H52" s="3"/>
+      <c r="I52" s="3"/>
     </row>
     <row r="53" spans="1:11">
-      <c r="C53" s="12"/>
-      <c r="D53" s="12"/>
-      <c r="E53" s="12"/>
-      <c r="F53" s="12"/>
-      <c r="G53" s="12"/>
-      <c r="H53" s="12"/>
-      <c r="I53" s="12"/>
-      <c r="K53" s="8" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11">
-      <c r="C54" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="D54" s="3"/>
-      <c r="E54" s="3"/>
-      <c r="F54" s="3"/>
-      <c r="G54" s="3"/>
-      <c r="H54" s="3"/>
-      <c r="I54" s="3"/>
-    </row>
-    <row r="55" spans="1:11">
-      <c r="H55" s="8"/>
+      <c r="H53" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1841,7 +1766,7 @@
         <v>13</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
     </row>
     <row r="8" spans="1:3">
